--- a/data/pca/factorExposure/factorExposure_2012-09-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-09-05.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002540694664006927</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001947980147220305</v>
+      </c>
+      <c r="C2">
+        <v>0.02897557720262024</v>
+      </c>
+      <c r="D2">
+        <v>0.00487394094153496</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0001696212486390463</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006386736717977407</v>
+      </c>
+      <c r="C4">
+        <v>0.08379034417382429</v>
+      </c>
+      <c r="D4">
+        <v>0.06858362278780489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.00527658926341818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01451060588470334</v>
+      </c>
+      <c r="C6">
+        <v>0.1190144923616808</v>
+      </c>
+      <c r="D6">
+        <v>0.02121975622753866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.0001694472335792209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004114374905962379</v>
+      </c>
+      <c r="C7">
+        <v>0.0591576429357688</v>
+      </c>
+      <c r="D7">
+        <v>0.03236666591047576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.00104595056765159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005391131362261373</v>
+      </c>
+      <c r="C8">
+        <v>0.03602768603521458</v>
+      </c>
+      <c r="D8">
+        <v>0.03952379585929736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.0007510464092504389</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005304424054928042</v>
+      </c>
+      <c r="C9">
+        <v>0.07193615582158336</v>
+      </c>
+      <c r="D9">
+        <v>0.07443406315334762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.0010903580204793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.002663430569679852</v>
+      </c>
+      <c r="C10">
+        <v>0.0516114382971289</v>
+      </c>
+      <c r="D10">
+        <v>-0.1869905114097459</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.001202455050442376</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005763455285016564</v>
+      </c>
+      <c r="C11">
+        <v>0.0805109062664575</v>
+      </c>
+      <c r="D11">
+        <v>0.06542419850664195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.000768181211850506</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004343072534032896</v>
+      </c>
+      <c r="C12">
+        <v>0.06542782739577049</v>
+      </c>
+      <c r="D12">
+        <v>0.04942606466442195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002141507179022463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008671983520397395</v>
+      </c>
+      <c r="C13">
+        <v>0.07097812408022626</v>
+      </c>
+      <c r="D13">
+        <v>0.05754302772941159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002019564545599933</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0004603668248520476</v>
+      </c>
+      <c r="C14">
+        <v>0.04294972412821058</v>
+      </c>
+      <c r="D14">
+        <v>0.01233275185027359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001000966744627225</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005523606464840011</v>
+      </c>
+      <c r="C15">
+        <v>0.04064841834575832</v>
+      </c>
+      <c r="D15">
+        <v>0.02937614211103553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-1.943884551172975e-05</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.00508079299673145</v>
+      </c>
+      <c r="C16">
+        <v>0.06504707324533796</v>
+      </c>
+      <c r="D16">
+        <v>0.05700199744924052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.002148485433935451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008439870753580797</v>
+      </c>
+      <c r="C20">
+        <v>0.06429799891387693</v>
+      </c>
+      <c r="D20">
+        <v>0.0526748888738243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.00495850208934492</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.008958744259309223</v>
+      </c>
+      <c r="C21">
+        <v>0.0197601346975797</v>
+      </c>
+      <c r="D21">
+        <v>0.04068748795967769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.02010265103227628</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.007798108647899538</v>
+      </c>
+      <c r="C22">
+        <v>0.08733327876684251</v>
+      </c>
+      <c r="D22">
+        <v>0.1234169056081424</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01974569995824473</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.007489464451421582</v>
+      </c>
+      <c r="C23">
+        <v>0.08771826918422788</v>
+      </c>
+      <c r="D23">
+        <v>0.1245262367718663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001706504887700767</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.00558557445898011</v>
+      </c>
+      <c r="C24">
+        <v>0.07728001132809637</v>
+      </c>
+      <c r="D24">
+        <v>0.06716435907852507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003340785331269418</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.002986694862492611</v>
+      </c>
+      <c r="C25">
+        <v>0.0786338604313449</v>
+      </c>
+      <c r="D25">
+        <v>0.06535952478996317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.001929070768388875</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003188736525440159</v>
+      </c>
+      <c r="C26">
+        <v>0.03887749490451981</v>
+      </c>
+      <c r="D26">
+        <v>0.02399207263160353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006846597426080114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.002200158043092496</v>
+      </c>
+      <c r="C28">
+        <v>0.1030485628613956</v>
+      </c>
+      <c r="D28">
+        <v>-0.3259851334057168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001305909442845287</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002773988243585761</v>
+      </c>
+      <c r="C29">
+        <v>0.04723077240594587</v>
+      </c>
+      <c r="D29">
+        <v>0.01226689171065902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003187902374363662</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008793593981279317</v>
+      </c>
+      <c r="C30">
+        <v>0.1413943745787475</v>
+      </c>
+      <c r="D30">
+        <v>0.109202598382602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.002017127842306794</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006202094410507818</v>
+      </c>
+      <c r="C31">
+        <v>0.04367694471441931</v>
+      </c>
+      <c r="D31">
+        <v>0.03259084289495371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0003827256633900551</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004016714500087742</v>
+      </c>
+      <c r="C32">
+        <v>0.03996314702766762</v>
+      </c>
+      <c r="D32">
+        <v>0.02034699965574257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>1.485947308713123e-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008514156363812647</v>
+      </c>
+      <c r="C33">
+        <v>0.09006508876656656</v>
+      </c>
+      <c r="D33">
+        <v>0.06413676108086112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.001862211617236754</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003806560870356911</v>
+      </c>
+      <c r="C34">
+        <v>0.05801137060338605</v>
+      </c>
+      <c r="D34">
+        <v>0.05884139798615899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001990345157154386</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005136201446871411</v>
+      </c>
+      <c r="C35">
+        <v>0.04042688099044629</v>
+      </c>
+      <c r="D35">
+        <v>0.0163613297382546</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004610108218915201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001576928621880355</v>
+      </c>
+      <c r="C36">
+        <v>0.02516491279663268</v>
+      </c>
+      <c r="D36">
+        <v>0.02444306670375133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002607295508337612</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.008950962324372298</v>
+      </c>
+      <c r="C38">
+        <v>0.04101674134354499</v>
+      </c>
+      <c r="D38">
+        <v>0.01132189644939329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01146552695269385</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.002192849118040559</v>
+      </c>
+      <c r="C39">
+        <v>0.1116706805392353</v>
+      </c>
+      <c r="D39">
+        <v>0.08076707307177279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.003883072030841706</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002544416434391728</v>
+      </c>
+      <c r="C40">
+        <v>0.09052517310589574</v>
+      </c>
+      <c r="D40">
+        <v>0.01613403744670618</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.002330275273430953</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007401080307108306</v>
+      </c>
+      <c r="C41">
+        <v>0.04127571857892872</v>
+      </c>
+      <c r="D41">
+        <v>0.04109932982590254</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.001724823519898707</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003813329202275028</v>
+      </c>
+      <c r="C43">
+        <v>0.05413793367048153</v>
+      </c>
+      <c r="D43">
+        <v>0.02916173050342061</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.007266226026333072</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.002149764735686843</v>
+      </c>
+      <c r="C44">
+        <v>0.1052107865409827</v>
+      </c>
+      <c r="D44">
+        <v>0.06930834174145606</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001379270705396889</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.00140528371508546</v>
+      </c>
+      <c r="C46">
+        <v>0.0326341430394826</v>
+      </c>
+      <c r="D46">
+        <v>0.03371387270503182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.000543689377150242</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002566246535548527</v>
+      </c>
+      <c r="C47">
+        <v>0.03557703615897859</v>
+      </c>
+      <c r="D47">
+        <v>0.02240395551623092</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004309901925782159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.007142718991057247</v>
+      </c>
+      <c r="C48">
+        <v>0.03325014625051618</v>
+      </c>
+      <c r="D48">
+        <v>0.03392219377004078</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.003616113122228789</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01637532545624196</v>
+      </c>
+      <c r="C49">
+        <v>0.1859413228390659</v>
+      </c>
+      <c r="D49">
+        <v>0.007642813701629335</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001023540718641908</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003487192449175826</v>
+      </c>
+      <c r="C50">
+        <v>0.04348133519979038</v>
+      </c>
+      <c r="D50">
+        <v>0.04053120256911347</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>4.288506386047696e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004006372881182938</v>
+      </c>
+      <c r="C51">
+        <v>0.02660783442143724</v>
+      </c>
+      <c r="D51">
+        <v>0.02291864307885897</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.008173347976564486</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02152280664328443</v>
+      </c>
+      <c r="C53">
+        <v>0.171959250578728</v>
+      </c>
+      <c r="D53">
+        <v>0.01873884033570922</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.003721953749168707</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.009400635079542518</v>
+      </c>
+      <c r="C54">
+        <v>0.0567871163269667</v>
+      </c>
+      <c r="D54">
+        <v>0.04211949326525059</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.001595213368387843</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009981151317459878</v>
+      </c>
+      <c r="C55">
+        <v>0.1091720594061977</v>
+      </c>
+      <c r="D55">
+        <v>0.03615434992741166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.008547507519708048</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02065543993548257</v>
+      </c>
+      <c r="C56">
+        <v>0.1744977673078661</v>
+      </c>
+      <c r="D56">
+        <v>0.01428799255495446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.003442865516244181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01874239162430378</v>
+      </c>
+      <c r="C58">
+        <v>0.1068666552437526</v>
+      </c>
+      <c r="D58">
+        <v>0.06585578277554401</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.002601775592196062</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009602575014252835</v>
+      </c>
+      <c r="C59">
+        <v>0.168115519789216</v>
+      </c>
+      <c r="D59">
+        <v>-0.3461192575813846</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.007391624088919575</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02506171694348033</v>
+      </c>
+      <c r="C60">
+        <v>0.2240158181178531</v>
+      </c>
+      <c r="D60">
+        <v>0.01660398016532252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01043909861380708</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.00225000131255649</v>
+      </c>
+      <c r="C61">
+        <v>0.09369268517550522</v>
+      </c>
+      <c r="D61">
+        <v>0.05949937544481099</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.14896917910953</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1516180207804456</v>
+      </c>
+      <c r="C62">
+        <v>0.1020193186340738</v>
+      </c>
+      <c r="D62">
+        <v>0.01861390683966738</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.00138280349073433</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006483764405172043</v>
+      </c>
+      <c r="C63">
+        <v>0.05358279498868925</v>
+      </c>
+      <c r="D63">
+        <v>0.03358586239724425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.009579572822241219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01651092361289912</v>
+      </c>
+      <c r="C64">
+        <v>0.1064155803260261</v>
+      </c>
+      <c r="D64">
+        <v>0.05527338230795562</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.008510400881544472</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01767271841378926</v>
+      </c>
+      <c r="C65">
+        <v>0.1207270081282492</v>
+      </c>
+      <c r="D65">
+        <v>0.02763543369570734</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.001505258313458984</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01257705608093492</v>
+      </c>
+      <c r="C66">
+        <v>0.1591258361711528</v>
+      </c>
+      <c r="D66">
+        <v>0.1131936709801867</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.005741755886782847</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01526655049138135</v>
+      </c>
+      <c r="C67">
+        <v>0.07348448817429808</v>
+      </c>
+      <c r="D67">
+        <v>0.02131325259733117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.004583851189146594</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0002052941759383365</v>
+      </c>
+      <c r="C68">
+        <v>0.08461467670932066</v>
+      </c>
+      <c r="D68">
+        <v>-0.258512209825385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.000236138688454665</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006522640835037276</v>
+      </c>
+      <c r="C69">
+        <v>0.0530915116667051</v>
+      </c>
+      <c r="D69">
+        <v>0.03727217124422401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.001284308810269742</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.002473899612566571</v>
+      </c>
+      <c r="C70">
+        <v>0.007852995725795852</v>
+      </c>
+      <c r="D70">
+        <v>-0.001446633877160317</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0001200494422407282</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.004578736998453816</v>
+      </c>
+      <c r="C71">
+        <v>0.08900278340810766</v>
+      </c>
+      <c r="D71">
+        <v>-0.3020680953044091</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.004178391081812421</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01764531558473742</v>
+      </c>
+      <c r="C72">
+        <v>0.158613177095486</v>
+      </c>
+      <c r="D72">
+        <v>0.006984078498736939</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.009635676289154269</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.0311280447040396</v>
+      </c>
+      <c r="C73">
+        <v>0.2807962065048177</v>
+      </c>
+      <c r="D73">
+        <v>0.05090953212260671</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005457259413626281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001994140981439466</v>
+      </c>
+      <c r="C74">
+        <v>0.102638016385565</v>
+      </c>
+      <c r="D74">
+        <v>0.03348948438889642</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.0006160084223893229</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01131738804685877</v>
+      </c>
+      <c r="C75">
+        <v>0.1211575114064702</v>
+      </c>
+      <c r="D75">
+        <v>0.02765673315958024</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01092442617474565</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02178867011230735</v>
+      </c>
+      <c r="C76">
+        <v>0.1461203435456901</v>
+      </c>
+      <c r="D76">
+        <v>0.05749554624295272</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.007556436457887027</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02078028890715727</v>
+      </c>
+      <c r="C77">
+        <v>0.1109384933616427</v>
+      </c>
+      <c r="D77">
+        <v>0.05529109145281846</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.005414049344232921</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01409608613727167</v>
+      </c>
+      <c r="C78">
+        <v>0.09935901764095617</v>
+      </c>
+      <c r="D78">
+        <v>0.08207285500151636</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02722126417839799</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03887149829084268</v>
+      </c>
+      <c r="C79">
+        <v>0.1578964044108128</v>
+      </c>
+      <c r="D79">
+        <v>0.03045031193597618</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006091318534970179</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.009374427623755914</v>
+      </c>
+      <c r="C80">
+        <v>0.03982682068955611</v>
+      </c>
+      <c r="D80">
+        <v>0.03095780171014163</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.004532873661978656</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01577520762100549</v>
+      </c>
+      <c r="C81">
+        <v>0.1307818415656009</v>
+      </c>
+      <c r="D81">
+        <v>0.03793396224406677</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.007429744590169353</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01920398125297285</v>
+      </c>
+      <c r="C82">
+        <v>0.1366137582202221</v>
+      </c>
+      <c r="D82">
+        <v>0.03690921344194992</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.004020581724243985</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01221316210853806</v>
+      </c>
+      <c r="C83">
+        <v>0.06454680112771616</v>
+      </c>
+      <c r="D83">
+        <v>0.04469363209082851</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.004117758715195189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.006249034320888341</v>
+      </c>
+      <c r="C84">
+        <v>0.03453910148658909</v>
+      </c>
+      <c r="D84">
+        <v>0.01182880638024041</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01829799469607053</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.0289013261696518</v>
+      </c>
+      <c r="C85">
+        <v>0.1235531053385308</v>
+      </c>
+      <c r="D85">
+        <v>0.03905106215937985</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002704435121699165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.003792744088545058</v>
+      </c>
+      <c r="C86">
+        <v>0.05069458045208731</v>
+      </c>
+      <c r="D86">
+        <v>0.02691191781383551</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.0007561600768439059</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01090735407947784</v>
+      </c>
+      <c r="C87">
+        <v>0.128423369558744</v>
+      </c>
+      <c r="D87">
+        <v>0.07472608973454549</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.009181059056421425</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003302169886811548</v>
+      </c>
+      <c r="C88">
+        <v>0.0633212675614241</v>
+      </c>
+      <c r="D88">
+        <v>0.0310537929316656</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01167360650270431</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.003133051525985029</v>
+      </c>
+      <c r="C89">
+        <v>0.134818455864204</v>
+      </c>
+      <c r="D89">
+        <v>-0.3138207492894721</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.002156204883245338</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.005607962185289921</v>
+      </c>
+      <c r="C90">
+        <v>0.1161275939295405</v>
+      </c>
+      <c r="D90">
+        <v>-0.3123255067063712</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.002060101074193595</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01082089953095796</v>
+      </c>
+      <c r="C91">
+        <v>0.09987597468533006</v>
+      </c>
+      <c r="D91">
+        <v>0.02803446829797392</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.005446992523163849</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>6.449123638650678e-05</v>
+      </c>
+      <c r="C92">
+        <v>0.1297116093942191</v>
+      </c>
+      <c r="D92">
+        <v>-0.3265269594796945</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002204483400858443</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.00325557087643843</v>
+      </c>
+      <c r="C93">
+        <v>0.1041419782712042</v>
+      </c>
+      <c r="D93">
+        <v>-0.3005540917560693</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.009944070406111026</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02174270173223765</v>
+      </c>
+      <c r="C94">
+        <v>0.1411891338363127</v>
+      </c>
+      <c r="D94">
+        <v>0.05406018409937011</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.005860363801939748</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01540742064912436</v>
+      </c>
+      <c r="C95">
+        <v>0.1202827469583879</v>
+      </c>
+      <c r="D95">
+        <v>0.0662816972962718</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0166943575206114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03735155445988392</v>
+      </c>
+      <c r="C97">
+        <v>0.2253168261870913</v>
+      </c>
+      <c r="D97">
+        <v>-0.001486004473637944</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.01169290513739824</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.0387849886117706</v>
+      </c>
+      <c r="C98">
+        <v>0.2612676398909509</v>
+      </c>
+      <c r="D98">
+        <v>0.02583061986896365</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9867240282513799</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9810510153671768</v>
+      </c>
+      <c r="C99">
+        <v>-0.1190220434213232</v>
+      </c>
+      <c r="D99">
+        <v>-0.02393385447745104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001335461140961718</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.00275403199649986</v>
+      </c>
+      <c r="C101">
+        <v>0.04734628012114586</v>
+      </c>
+      <c r="D101">
+        <v>0.01275137406350019</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
